--- a/data/trans_orig/P34E1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF5C8377-5EEC-4170-BB45-2370E5668C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0794A2D-BE05-4A39-A071-C98FD3ECE713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A33D7782-2CDC-496C-81E6-A992E81A78E5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D22E6ED-76FA-4DFA-85F2-01A36C8B23C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -87,748 +87,748 @@
     <t>18,76%</t>
   </si>
   <si>
-    <t>12,58%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>8,44%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67654B9C-E8F4-4864-83E3-CD8E7CF226FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CBBF9C-F282-47CC-8DAC-12F67923E3BD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1532,7 +1532,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1541,13 +1541,13 @@
         <v>5723</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -1556,13 +1556,13 @@
         <v>14730</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1577,13 +1577,13 @@
         <v>29313</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1592,13 +1592,13 @@
         <v>15686</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -1607,13 +1607,13 @@
         <v>44998</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1628,13 +1628,13 @@
         <v>8160</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1643,13 +1643,13 @@
         <v>7015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -1658,13 +1658,13 @@
         <v>15175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1679,13 @@
         <v>26331</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -1694,13 +1694,13 @@
         <v>18122</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -1709,13 +1709,13 @@
         <v>44452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1730,13 @@
         <v>18377</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -1745,13 +1745,13 @@
         <v>28683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -1760,13 +1760,13 @@
         <v>47060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1781,13 @@
         <v>8519</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1796,13 +1796,13 @@
         <v>3353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -1811,13 +1811,13 @@
         <v>11871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1832,13 @@
         <v>122738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>91</v>
@@ -1847,13 +1847,13 @@
         <v>96039</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -1862,18 +1862,18 @@
         <v>218777</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -1891,7 +1891,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1936,13 @@
         <v>59096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -1951,13 +1951,13 @@
         <v>35526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -1966,13 +1966,13 @@
         <v>94622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1987,13 @@
         <v>24470</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -2002,7 +2002,7 @@
         <v>16162</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>93</v>
@@ -2044,7 +2044,7 @@
         <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -2053,13 +2053,13 @@
         <v>78225</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -2068,13 +2068,13 @@
         <v>224512</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2089,13 @@
         <v>62413</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -2104,7 +2104,7 @@
         <v>47532</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>110</v>
@@ -2293,13 +2293,13 @@
         <v>704381</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>413</v>
@@ -2308,13 +2308,13 @@
         <v>425482</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" s="7">
         <v>1076</v>
@@ -2323,13 +2323,13 @@
         <v>1129863</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,7 +2403,7 @@
         <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -2412,13 +2412,13 @@
         <v>11843</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -2427,13 +2427,13 @@
         <v>33503</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,7 +2448,7 @@
         <v>5492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>154</v>
@@ -2469,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2478,13 +2478,13 @@
         <v>7378</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,10 +2499,10 @@
         <v>40032</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>162</v>
@@ -2520,7 +2520,7 @@
         <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -2529,13 +2529,13 @@
         <v>60152</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2550,13 @@
         <v>22685</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -2565,13 +2565,13 @@
         <v>20652</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -2580,13 +2580,13 @@
         <v>43337</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2601,13 @@
         <v>77585</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H27" s="7">
         <v>56</v>
@@ -2616,13 +2616,13 @@
         <v>56853</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M27" s="7">
         <v>126</v>
@@ -2631,13 +2631,13 @@
         <v>134438</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2652,13 @@
         <v>52786</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -2667,13 +2667,13 @@
         <v>63707</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>105</v>
@@ -2682,13 +2682,13 @@
         <v>116493</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>27053</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -2718,13 +2718,13 @@
         <v>25289</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -2733,13 +2733,13 @@
         <v>52342</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2754,13 @@
         <v>247291</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H30" s="7">
         <v>193</v>
@@ -2769,13 +2769,13 @@
         <v>200351</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M30" s="7">
         <v>416</v>
@@ -2784,13 +2784,13 @@
         <v>447642</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,37 +2813,37 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2858,13 @@
         <v>103787</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H32" s="7">
         <v>62</v>
@@ -2888,13 +2888,13 @@
         <v>168615</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2909,13 @@
         <v>38968</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -2924,7 +2924,7 @@
         <v>23771</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>218</v>
@@ -2939,7 +2939,7 @@
         <v>62739</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>220</v>
@@ -3044,10 +3044,10 @@
         <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,10 +3062,10 @@
         <v>286151</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>241</v>
@@ -3083,7 +3083,7 @@
         <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="M36" s="7">
         <v>445</v>
@@ -3092,7 +3092,7 @@
         <v>468163</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>245</v>
@@ -3131,10 +3131,10 @@
         <v>250</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M37" s="7">
         <v>395</v>
@@ -3143,13 +3143,13 @@
         <v>423958</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3164,13 @@
         <v>102977</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H38" s="7">
         <v>70</v>
@@ -3179,13 +3179,13 @@
         <v>71711</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M38" s="7">
         <v>164</v>
@@ -3194,13 +3194,13 @@
         <v>174688</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3215,13 @@
         <v>1074410</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H39" s="7">
         <v>697</v>
@@ -3230,13 +3230,13 @@
         <v>721872</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M39" s="7">
         <v>1702</v>
@@ -3245,13 +3245,13 @@
         <v>1796282</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,7 +3275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFBE83-75FD-4420-B8D8-2625EBA0C5D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E91878F-DB1A-4CCA-88CE-32D932937C33}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3405,7 +3405,7 @@
         <v>267</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
         <v>1427</v>
@@ -3420,7 +3420,7 @@
         <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>2118</v>
@@ -3435,7 +3435,7 @@
         <v>269</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3456,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>1427</v>
@@ -3822,13 +3822,13 @@
         <v>835953</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>2118</v>
@@ -3837,18 +3837,18 @@
         <v>1377586</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -3866,13 +3866,13 @@
         <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>266</v>
@@ -3881,7 +3881,7 @@
         <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>4913</v>
@@ -3896,7 +3896,7 @@
         <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,28 +4268,28 @@
         <v>2162022</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>2921</v>
       </c>
       <c r="I21" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" s="7">
         <v>4913</v>
@@ -4298,13 +4298,13 @@
         <v>4411543</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,7 +4327,7 @@
         <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="7">
         <v>1004</v>
@@ -4342,7 +4342,7 @@
         <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>1685</v>
@@ -4357,7 +4357,7 @@
         <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,37 +4378,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,37 +4429,37 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,37 +4480,37 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,37 +4531,37 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,37 +4582,37 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,37 +4633,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,37 +4684,37 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4729,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H30" s="7">
         <v>1004</v>
@@ -4744,13 +4744,13 @@
         <v>713886</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M30" s="7">
         <v>1685</v>
@@ -4759,13 +4759,13 @@
         <v>1386926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4779,7 @@
         <v>3364</v>
       </c>
       <c r="D31" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>266</v>
@@ -4788,7 +4788,7 @@
         <v>280</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H31" s="7">
         <v>5352</v>
@@ -4803,13 +4803,13 @@
         <v>274</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M31" s="7">
         <v>8716</v>
       </c>
       <c r="N31" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>266</v>
@@ -4818,7 +4818,7 @@
         <v>281</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,16 +5187,16 @@
         <v>3364</v>
       </c>
       <c r="D39" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H39" s="7">
         <v>5352</v>
@@ -5205,28 +5205,28 @@
         <v>3799360</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M39" s="7">
         <v>8716</v>
       </c>
       <c r="N39" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P34E1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0794A2D-BE05-4A39-A071-C98FD3ECE713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4689AC5-0179-49AE-A77D-0C40317E6B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D22E6ED-76FA-4DFA-85F2-01A36C8B23C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A499EBC-B08D-4BC8-BC15-4DECC36C0B48}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="284">
-  <si>
-    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 26,03%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="291">
+  <si>
+    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 26,03%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -87,19 +87,19 @@
     <t>18,76%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>18,51%</t>
@@ -108,727 +108,748 @@
     <t>13,64%</t>
   </si>
   <si>
-    <t>24,01%</t>
+    <t>24,56%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>20,07%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>29,22%</t>
+    <t>23,94%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>21,9%</t>
+    <t>22,3%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>29,53%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1300,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CBBF9C-F282-47CC-8DAC-12F67923E3BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24689B9-CFF1-4D6A-B574-AA602D7E3223}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1817,7 +1838,7 @@
         <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1853,13 @@
         <v>122738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>91</v>
@@ -1847,13 +1868,13 @@
         <v>96039</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -1862,18 +1883,18 @@
         <v>218777</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -1891,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1906,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1921,7 +1942,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1957,13 @@
         <v>59096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -1951,13 +1972,13 @@
         <v>35526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -1966,13 +1987,13 @@
         <v>94622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +2008,13 @@
         <v>24470</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -2002,13 +2023,13 @@
         <v>16162</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>38</v>
@@ -2017,13 +2038,13 @@
         <v>40632</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2059,13 @@
         <v>146287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -2053,13 +2074,13 @@
         <v>78225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -2068,13 +2089,13 @@
         <v>224512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2110,13 @@
         <v>62413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -2104,13 +2125,13 @@
         <v>47532</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -2119,13 +2140,13 @@
         <v>109944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2161,13 @@
         <v>182236</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -2155,13 +2176,13 @@
         <v>107037</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>277</v>
@@ -2170,13 +2191,13 @@
         <v>289273</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2212,13 @@
         <v>162474</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -2206,13 +2227,13 @@
         <v>97930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>245</v>
@@ -2221,13 +2242,13 @@
         <v>260405</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2263,13 @@
         <v>67406</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -2257,13 +2278,13 @@
         <v>43069</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -2272,13 +2293,13 @@
         <v>110475</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2314,13 @@
         <v>704381</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>413</v>
@@ -2308,13 +2329,13 @@
         <v>425482</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>1076</v>
@@ -2323,18 +2344,18 @@
         <v>1129863</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -2352,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2367,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2382,7 +2403,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2418,13 @@
         <v>21660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -2412,13 +2433,13 @@
         <v>11843</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -2427,13 +2448,13 @@
         <v>33503</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2469,13 @@
         <v>5492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2463,13 +2484,13 @@
         <v>1886</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2478,13 +2499,13 @@
         <v>7378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2520,13 @@
         <v>40032</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2514,13 +2535,13 @@
         <v>20120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -2529,13 +2550,13 @@
         <v>60152</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2571,13 @@
         <v>22685</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -2565,13 +2586,13 @@
         <v>20652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -2580,13 +2601,13 @@
         <v>43337</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2622,13 @@
         <v>77585</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>56</v>
@@ -2616,13 +2637,13 @@
         <v>56853</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>126</v>
@@ -2631,13 +2652,13 @@
         <v>134438</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2673,13 @@
         <v>52786</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -2667,13 +2688,13 @@
         <v>63707</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>105</v>
@@ -2682,13 +2703,13 @@
         <v>116493</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2724,13 @@
         <v>27053</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -2718,13 +2739,13 @@
         <v>25289</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -2733,13 +2754,13 @@
         <v>52342</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2775,13 @@
         <v>247291</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="7">
         <v>193</v>
@@ -2769,13 +2790,13 @@
         <v>200351</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>416</v>
@@ -2784,13 +2805,13 @@
         <v>447642</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2834,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2828,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2843,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2879,13 @@
         <v>103787</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>62</v>
@@ -2873,13 +2894,13 @@
         <v>64828</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>159</v>
@@ -2888,13 +2909,13 @@
         <v>168615</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2930,13 @@
         <v>38968</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -2924,13 +2945,13 @@
         <v>23771</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M33" s="7">
         <v>59</v>
@@ -2942,10 +2963,10 @@
         <v>71</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2981,13 @@
         <v>215632</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>110</v>
@@ -2975,13 +2996,13 @@
         <v>114032</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>315</v>
@@ -2990,13 +3011,13 @@
         <v>329663</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3032,13 @@
         <v>93257</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>75</v>
@@ -3026,13 +3047,13 @@
         <v>75198</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>165</v>
@@ -3041,13 +3062,13 @@
         <v>168456</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3083,13 @@
         <v>286151</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="H36" s="7">
         <v>177</v>
@@ -3077,13 +3098,13 @@
         <v>182012</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="M36" s="7">
         <v>445</v>
@@ -3092,13 +3113,13 @@
         <v>468163</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3134,13 @@
         <v>233637</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>179</v>
@@ -3128,13 +3149,13 @@
         <v>190321</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>395</v>
@@ -3143,13 +3164,13 @@
         <v>423958</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3185,13 @@
         <v>102977</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>70</v>
@@ -3179,13 +3200,13 @@
         <v>71711</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>164</v>
@@ -3194,13 +3215,13 @@
         <v>174688</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3236,13 @@
         <v>1074410</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" s="7">
         <v>697</v>
@@ -3230,13 +3251,13 @@
         <v>721872</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M39" s="7">
         <v>1702</v>
@@ -3245,18 +3266,18 @@
         <v>1796282</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3275,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E91878F-DB1A-4CCA-88CE-32D932937C33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CF3B72-4950-42B4-826D-304983C17ED1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3292,7 +3313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3399,13 +3420,13 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>1427</v>
@@ -3414,13 +3435,13 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
         <v>2118</v>
@@ -3429,13 +3450,13 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3471,7 +3492,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3486,7 +3507,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3522,7 +3543,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3537,7 +3558,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3579,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3573,7 +3594,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3588,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,7 +3630,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3624,7 +3645,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3639,7 +3660,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3681,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3675,7 +3696,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3690,7 +3711,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,7 +3732,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3726,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3741,7 +3762,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,7 +3783,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3777,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3792,7 +3813,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3828,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>1427</v>
@@ -3822,13 +3843,13 @@
         <v>835953</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>2118</v>
@@ -3837,18 +3858,18 @@
         <v>1377586</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -3860,13 +3881,13 @@
         <v>2162022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>2921</v>
@@ -3875,13 +3896,13 @@
         <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>4913</v>
@@ -3890,13 +3911,13 @@
         <v>4411543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3932,7 +3953,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3947,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,7 +3989,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3983,7 +4004,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -3998,7 +4019,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,7 +4040,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4034,7 +4055,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4049,7 +4070,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4091,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4085,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4100,7 +4121,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4142,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4136,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4151,7 +4172,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,7 +4193,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4187,7 +4208,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4202,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4244,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4238,7 +4259,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4253,7 +4274,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4289,13 @@
         <v>2162022</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>2921</v>
@@ -4283,13 +4304,13 @@
         <v>2249521</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>4913</v>
@@ -4298,18 +4319,18 @@
         <v>4411543</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -4321,13 +4342,13 @@
         <v>673039</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" s="7">
         <v>1004</v>
@@ -4336,13 +4357,13 @@
         <v>713886</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" s="7">
         <v>1685</v>
@@ -4351,13 +4372,13 @@
         <v>1386926</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4399,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4393,7 +4414,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4408,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,7 +4450,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4444,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4459,7 +4480,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,7 +4501,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4495,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4510,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4552,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4546,7 +4567,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4561,7 +4582,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4603,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4597,7 +4618,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -4612,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,7 +4654,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4648,7 +4669,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4663,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,7 +4705,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4699,7 +4720,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4714,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4750,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="7">
         <v>1004</v>
@@ -4744,13 +4765,13 @@
         <v>713886</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>1685</v>
@@ -4759,13 +4780,13 @@
         <v>1386926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4803,13 @@
         <v>3376694</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" s="7">
         <v>5352</v>
@@ -4797,13 +4818,13 @@
         <v>3799360</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M31" s="7">
         <v>8716</v>
@@ -4812,13 +4833,13 @@
         <v>7176054</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4860,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4854,7 +4875,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4869,7 +4890,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,7 +4911,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4905,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -4920,7 +4941,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4962,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4956,7 +4977,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4971,7 +4992,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,7 +5013,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5007,7 +5028,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -5022,7 +5043,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,7 +5064,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5058,7 +5079,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5073,7 +5094,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5109,7 +5130,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5124,7 +5145,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,7 +5166,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5160,7 +5181,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5175,7 +5196,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5211,13 @@
         <v>3376694</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" s="7">
         <v>5352</v>
@@ -5205,13 +5226,13 @@
         <v>3799360</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M39" s="7">
         <v>8716</v>
@@ -5220,18 +5241,18 @@
         <v>7176054</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA97A490-9953-43F9-B338-6BF8AC3D1D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55BB1FF3-9CD4-4C88-837B-326D6FBF2BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92BD4EB0-FBAB-427B-8322-CE4B226F71F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6795428-3735-4EA6-96A3-6F423DA7AF27}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -1263,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98905C70-897E-4685-85C4-69ECF323BF0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBE22E8-8523-4B37-8D34-7282039243B0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2693,7 +2693,7 @@
         <v>611</v>
       </c>
       <c r="N29" s="7">
-        <v>648384</v>
+        <v>648385</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>209</v>
@@ -2744,7 +2744,7 @@
         <v>1027</v>
       </c>
       <c r="N30" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>77</v>
